--- a/Warehouse/BD/judgement_logs_run4o.xlsx
+++ b/Warehouse/BD/judgement_logs_run4o.xlsx
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday to celebrate the high school seniors.
+MSG: The decision has been recorded: rights for "Barbie" will be acquired for the upcoming senior event.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to select "Barbie" for Friday's movie screening.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the senior assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday event.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown during the event for seniors.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've made the decision to acquire rights for "Barbie" based on the committee's consensus to show this film on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Barbie" have been successfully acquired for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming movie event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's discussion, emphasizing its educational significance and potential for stimulating important conversations among students.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee has not reached a definitive conclusion on which movie to show on Friday, as they plan to conduct a survey to gather student preferences. Therefore, I will record this as a decision with no finalized choice.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the selected movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the film "Barbie" to be shown on Friday.
+MSG: I've finalized the decision to acquire the rights to "Barbie" for the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision for the screening on Friday is to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie." This aligns with the committee's consensus to create a joyful and celebratory atmosphere for the students during the upcoming event.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming senior event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie." This choice reflects the committee's desire to provide an uplifting and celebratory experience for the students during their important transition.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the rights will be acquired for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday event.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" for the event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown at the Friday assembly.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming Friday event.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Based on the committee's discussion, they have not reached a definitive decision about which movie to show on Friday, as they plan to gather further student input before making a final choice. Thus, I will record the decision as having no clear selection at this time.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event, aligning with the committee's goal of fostering a positive, critical discussion among students.
+MSG: The decision has been recorded: the rights for "Barbie" will be acquired for the upcoming event.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation event.
 </t>
         </is>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee has decided to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming high school event on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" this Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie for the graduation event on Friday.
+MSG: The decision has been made to acquire the performance rights for "Barbie" for the graduation event.
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the Friday event.
+MSG: I have recorded the decision to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement to prioritize student preferences through polling.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday screening.
+MSG: The rights for both movies, "Barbie" and "Oppenheimer," will be acquired for the upcoming screening.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and the movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly.
 </t>
         </is>
       </c>

--- a/Warehouse/BD/judgement_logs_run4o.xlsx
+++ b/Warehouse/BD/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to select a movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: rights for "Barbie" will be acquired for the upcoming senior event.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to select "Barbie" for Friday's movie screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday event.
+MSG: The decision for a movie to be shown on Friday could not be reached, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The conversation ended without a definitive decision on what movie to show on Friday, so I have called the no_decision function.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made that there is no clear choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process did not result in an agreement on which movie to show on Friday, so the conclusion is that there is no decision.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday was not made, and the conversation ended without a definitive plan.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision regarding which movie to show on Friday could not be made, so the choice remains undecided.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision about which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: Based on the given criteria, there was no explicit decision made about the movie to be shown on Friday, so the appropriate action is to call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire "Barbie" rights has been made successfully.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's discussion, emphasizing its educational significance and potential for stimulating important conversations among students.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie was definitively chosen for this Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a definitive conclusion on which movie to show on Friday, as they plan to conduct a survey to gather student preferences. Therefore, I will record this as a decision with no finalized choice.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no choice made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision process resulted in no clear agreement regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've finalized the decision to acquire the rights to "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the screening on Friday is to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie." This aligns with the committee's consensus to create a joyful and celebratory atmosphere for the students during the upcoming event.
+MSG: The decision process concluded without a definitive choice for the movie on Friday, so no action was taken to acquire rights for any film.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for screening.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about what movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no definitive choice for the movie to show on Friday was made.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision about what movie to show on Friday has not been made, indicating no selection was reached.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision regarding the movie for Friday resulted in no agreement, as confirmed by the call to the no_decision function.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday event.
+MSG: The decision has been recorded as no choice could be made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for screening on Friday.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The rights to "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown at the Friday assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about which movie to show on Friday was not reached, as the committee did not come to a conclusive choice.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's discussion, they have not reached a definitive decision about which movie to show on Friday, as they plan to gather further student input before making a final choice. Thus, I will record the decision as having no clear selection at this time.
+MSG: No decision was made regarding the movie to play on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the rights for "Barbie" will be acquired for the upcoming event.
+MSG: The decision about what movie to show on Friday could not be determined.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation event.
+MSG: The decision about what movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the upcoming event.
+MSG: The result indicates that there was no decision made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to record no decision regarding which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming high school event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for Friday's showing.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding the movie selection has concluded with no movie chosen. If you need any further assistance or information, feel free to ask!
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding Friday's movie has concluded without a selection.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the performance rights for "Barbie" for the graduation event.
+MSG: The decision has been recorded, and no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement to prioritize student preferences through polling.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies, "Barbie" and "Oppenheimer," will be acquired for the upcoming screening.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation did not result in a clearly defined decision regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly.
+MSG: The decision has been recorded as no decision being made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BD/judgement_logs_run4o.xlsx
+++ b/Warehouse/BD/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday has been recorded as "no decision."
+MSG: The decision about which movie to show on Friday resulted in no conclusion.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
+MSG: The decision has been recorded to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday was not reached.
+MSG: The decision cannot be made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for a movie to be shown on Friday could not be reached, resulting in no decision being made.
+MSG: The decision-making process ended without a clear decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a definitive decision on what movie to show on Friday, so I have called the no_decision function.
+MSG: The decision has concluded with no choice of a movie for Friday.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that there is no clear choice for the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been successfully acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in an agreement on which movie to show on Friday, so the conclusion is that there is no decision.
+MSG: The decision has been made, and there will be no movie shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not made, and the conversation ended without a definitive plan.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: I have recorded the decision as "no_decision," indicating that no agreement was reached about the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday could not be made, so the choice remains undecided.
+MSG: The decision regarding Friday's movie cannot be made at this time.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no agreement.
+MSG: The decision process concluded without a choice for Friday’s movie, so the no-decision function has been executed.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the given criteria, there was no explicit decision made about the movie to be shown on Friday, so the appropriate action is to call the no_decision function.
+MSG: A decision regarding the movie to show on Friday could not be reached, so I have recorded that as no decision made.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire "Barbie" rights has been made successfully.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was definitively chosen for this Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday as the committee did not reach a consensus.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The conversation has ended without making a decision about what movie to show on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice made regarding Friday's movie.
+MSG: The decision has been recorded as no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no clear agreement regarding the movie to show on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: It appears that no decision about Friday's movie was made. Therefore, I will call the `no_decision` function to reflect this outcome.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: No decision about Friday's movie was made in this meeting.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
+MSG: No decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice for the movie on Friday, so no action was taken to acquire rights for any film.
+MSG: The decision to acquire the rights for the movie "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for screening.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has been recorded as no decision.
+MSG: Based on the information provided, it appears that the committee was unable to reach a decision about what movie to show on Friday. Therefore, the appropriate action is to call the no_decision function.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no definitive choice for the movie to show on Friday was made.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been made, indicating no selection was reached.
+MSG: The function has been executed, indicating that no decision was reached regarding the movie selection.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday resulted in no agreement, as confirmed by the call to the no_decision function.
+MSG: The conversation ended without a decision on what movie to show on Friday. Therefore, the appropriate action was to call the no_decision function.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about which movie to show on Friday.
+MSG: The decision-making process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: I have recorded the decision as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,14 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: I apologize for the confusion earlier. Since it seems there was no explicit decision reached regarding acquiring the rights for both movies or confirming one movie to show, I will proceed to call the function indicating that no decision was made about Friday’s movie.
+```no_decision```
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1321,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice could be made regarding Friday's movie.
+MSG: I have recorded the decision that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1343,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for screening on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded with no selection made for Friday's movie.
 </t>
         </is>
       </c>
@@ -1386,7 +1387,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired.
+MSG: The decision to acquire the rights to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1408,7 +1409,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been made.
+MSG: The decision to acquire the rights for the movie "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1452,7 +1453,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, as the committee did not come to a conclusive choice.
+MSG: No movie was chosen for Friday.
 </t>
         </is>
       </c>
@@ -1474,13 +1475,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: It appears that the rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1497,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to play on Friday.
+MSG: The decision regarding the movie to show on Friday resulted in no agreement being reached.
 </t>
         </is>
       </c>
@@ -1518,7 +1519,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -1540,7 +1541,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday could not be determined.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -1562,7 +1563,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday was not made.
+MSG: The decision has been recorded, indicating that no movie choice was made for Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1585,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result indicates that there was no decision made regarding the movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to record no decision regarding which movie to play on Friday.
+MSG: The decision-making process did not result in an agreement on which movie to show, so no decision has been made regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for Friday's showing.
+MSG: The rights to "Barbie" have been successfully acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1650,7 +1651,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1672,7 +1673,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1694,7 +1695,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie selection has concluded with no movie chosen. If you need any further assistance or information, feel free to ask!
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday, and no further action will be taken.
 </t>
         </is>
       </c>
@@ -1716,7 +1717,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has concluded without a selection.
+MSG: The committee did not arrive at a decision about the movie to be shown on Friday. Therefore, no acquisition of movie rights is necessary.
 </t>
         </is>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired at this time.
+MSG: The decision to select a movie for Friday has resulted in no definitive choice being made.
 </t>
         </is>
       </c>
@@ -1760,7 +1761,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1782,13 +1783,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,7 +1805,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie" for screening on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1827,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1870,7 +1871,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not result in a clearly defined decision regarding which movie will be shown on Friday.
+MSG: The decision was made that there would be no selected movie for Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1893,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" on Friday.
+MSG: The decision to show "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1914,7 +1915,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie to show on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/BD/judgement_logs_run4o.xlsx
+++ b/Warehouse/BD/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no conclusion.
+MSG: The decision has been recorded indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to show "Barbie" on Friday.
+MSG: The rights to "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;03;53.json</t>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;22;01.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;11;29.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;25;00.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
+MSG: The function has been called, indicating that there was no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;27;53.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;03;53.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision cannot be made regarding which movie to show on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;22;20.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;11;29.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear decision on which movie to show on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;32;03.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;26;02.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision process has concluded without a consensus on which movie to acquire. No movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;23;03.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;27;53.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has concluded with no choice of a movie for Friday.
+MSG: I have recorded the decision as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;55;27.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;22;20.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been successfully acquired for the showing on Friday.
+MSG: Since no decision was reached regarding which movie to show on Friday, I have recorded it as "no decision."
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;30;43.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;32;03.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;59;25.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;23;03.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, and there will be no movie shown on Friday.
+MSG: The decision about the movie for Friday was not made, resulting in no acquisition of movie rights.
 </t>
         </is>
       </c>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;06;24.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;55;27.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday.
+MSG: I have called the no_decision function, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;14;04.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;30;43.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision," indicating that no agreement was reached about the movie for Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;57;24.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;59;25.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie cannot be made at this time.
+MSG: The decision has been recorded as no decision being made for Friday's movie.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;52;03.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;06;24.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie."
+MSG: The function has been called successfully, indicating that no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;04;39.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;14;04.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a choice for Friday’s movie, so the no-decision function has been executed.
+MSG: The decision has been made to acquire the rights to "Barbie" for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;12;18.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;57;24.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: A decision regarding the movie to show on Friday could not be reached, so I have recorded that as no decision made.
+MSG: The decision-making process did not result in any agreement on the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;09;23.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;52;03.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The committee has decided to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;33;01.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;04;39.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday.
+MSG: The decision regarding Friday's movie has not been made, and therefore no movie will be acquired.
 </t>
         </is>
       </c>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;08;15.json</t>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;49;44.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be shown on Friday as the committee did not reach a consensus.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;05;58.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;12;18.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation has ended without making a decision about what movie to show on Friday, so I will call the no_decision function.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;10;53.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;09;23.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision on which movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;29;40.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;33;01.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been made that there will be no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;05;35.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;08;15.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that no decision about Friday's movie was made. Therefore, I will call the `no_decision` function to reflect this outcome.
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus being reached.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;00;36.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;05;58.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision about Friday's movie was made in this meeting.
+MSG: The decision is that no agreement has been reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;59;12.json</t>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;48;25.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;33;32.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;10;53.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;52;49.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;29;40.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been made.
+MSG: The decision has ended without any agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;54;48.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;05;35.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision about which movie to show on Friday has not been made, so there will be no acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;58;30.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;00;36.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the information provided, it appears that the committee was unable to reach a decision about what movie to show on Friday. Therefore, the appropriate action is to call the no_decision function.
+MSG: The result indicates that no decision was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;07;08.json</t>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;45;25.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_12;00;20.json</t>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;44;26.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been recorded and no movie has been acquired for Friday.
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_12;01;08.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;17;20.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been executed, indicating that no decision was reached regarding the movie selection.
+MSG: The decision has been recorded to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;06;48.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;59;12.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision on what movie to show on Friday. Therefore, the appropriate action was to call the no_decision function.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;31;18.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;33;32.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a selection for Friday's movie.
+MSG: I've successfully recorded the decision to acquire the rights for both movies, "Oppenheimer" and "Barbie," for the committee.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;09;57.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;52;49.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+MSG: The decision has been recorded, and no movie was selected during the meeting.
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;57;45.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;54;48.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected.
+MSG: The decision to acquire rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;01;33.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;58;30.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision was made regarding the movie to be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1292,20 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;12;15.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;07;08.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I apologize for the confusion earlier. Since it seems there was no explicit decision reached regarding acquiring the rights for both movies or confirming one movie to show, I will proceed to call the function indicating that no decision was made about Friday’s movie.
-```no_decision```
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1315,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;54;39.json</t>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;49;01.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision that no movie will be shown on Friday.
+MSG: The decision has been recorded. No movie will be acquired for Friday.
 </t>
         </is>
       </c>
@@ -1337,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;32;28.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_12;00;20.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1359,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;53;33.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_14;53;44.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no selection made for Friday's movie.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1381,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;49;19.json</t>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;50;25.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to show "Barbie" has been successfully recorded.
+MSG: The committee did not make a decision about which movie to show on Friday, so no choice can be made at this time.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1403,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;34;47.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_12;01;08.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been recorded.
+MSG: The decision has been recorded, indicating that no agreement was reached on the choice of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1425,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;08;38.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_14;54;33.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The conversation did not lead to a decision about which movie to show on Friday. Therefore, no action will be taken.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1447,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;10;21.json</t>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;15;08.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was chosen for Friday.
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1469,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;08;53.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;06;48.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that the rights to both movies have been acquired.
+MSG: The decision has been recorded as no consensus was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1491,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;04;56.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;31;18.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday resulted in no agreement being reached.
+MSG: The decision has been made. There was no specific movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1513,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;34;07.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;09;57.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1535,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;13;10.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;23;53.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved.
+MSG: The decision regarding which movie to show on Friday has resulted in no consensus, so I will proceed with the decision that no movie will be selected.
 </t>
         </is>
       </c>
@@ -1557,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;28;56.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;57;45.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie choice was made for Friday.
+MSG: The decision regarding which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1579,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;57;09.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;21;42.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1601,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;02;29.json</t>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;20;15.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in an agreement on which movie to show, so no decision has been made regarding Friday's movie.
+MSG: The decision to acquire the rights for *Barbie* has been recorded.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1623,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;59;48.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;01;33.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for Friday's showing.
+MSG: The decision-making committee did not reach a conclusion about which movie to show on Friday, thus I will register that there was no decision made.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1645,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;51;18.json</t>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;19;52.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1667,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;50;22.json</t>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;20;43.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision has been recorded as "no decision." No movie was selected for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1689,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_12;02;29.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;12;15.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday, and no further action will be taken.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1711,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;48;36.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;54;39.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision about the movie to be shown on Friday. Therefore, no acquisition of movie rights is necessary.
+MSG: The decision regarding which movie to show on Friday has been concluded without an agreement, so no further action will be taken.
 </t>
         </is>
       </c>
@@ -1733,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;23;51.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;32;28.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday has resulted in no definitive choice being made.
+MSG: The decision has been recorded to acquire "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1755,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;35;34.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;53;33.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1777,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;27;16.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;49;19.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The decision has been recorded, and the rights for the movie "Barbie" will be acquired.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1799,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;15;23.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;34;47.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1821,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;16;08.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;08;38.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming showing on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1843,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;05;24.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;10;21.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no agreement or selection.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1865,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;56;24.json</t>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;08;53.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made that there would be no selected movie for Friday.
+MSG: The decision has been recorded, and the movie "Barbie" was selected to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1887,19 +1886,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;58;42.json</t>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;04;56.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been recorded successfully.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1909,17 +1908,677 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;34;07.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" and it will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;13;10.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not make a decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;17;17.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;28;56.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;57;09.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for a movie was not made, as there was no consensus reached in the discussion.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;02;29.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday has not been made, as there was no consensus among the committee members.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;59;48.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;19;12.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has ended without an explicit choice.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;51;11.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision on which movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;18;05.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;51;18.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to show "Barbie" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;50;22.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;22;37.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;13;37.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;16;16.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was left unresolved.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;19;08.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision on which movie to show on Friday has not been made, and the committee has reached an impasse.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_12;02;29.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not make a definitive decision on which movie to show for Friday. Therefore, no movie rights will be acquired at this time.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;48;36.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I've recorded the decision as no decision about Friday's movie could be made.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;23;51.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision on which movie to show on Friday was not reached, and the conversation ended without selecting a movie.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;35;34.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;27;16.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no specific movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;15;23.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been successfully recorded, and the rights to "Barbie" will be acquired for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_29_2025 at_15;16;08.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday could not be made, and therefore, the function indicating no decision has been called successfully.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;47;20.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;05;24.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_16_2025 at_10;43;29.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee has ended the conversation without reaching a decision about what movie will be shown on Friday, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_20;56;24.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no agreement reached on what movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_discovery_04_28_2025 at_11;58;42.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded: "Barbie" has been selected as the movie to acquire for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>./Warehouse/BD/run4o_discovery_05_01_2025 at_21;11;23.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation has ended without a decision about which movie will be shown on Friday, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_11_2025 at_19;16;37.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/BD/run4o_08_12_2025 at_19;18;12.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to not select a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
